--- a/readme/tasklist.xlsx
+++ b/readme/tasklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\hashiguchi\モール店リニューアルプロジェクト\★program\141101課題管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newgene19_PC\Desktop\program_mall_renewal\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$H$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$H$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>■モール店リニューアル課題</t>
     <rPh sb="4" eb="5">
@@ -53,13 +54,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト出力</t>
-    <rPh sb="3" eb="5">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>修正箇所の確認</t>
     <rPh sb="0" eb="2">
       <t>シュウセイ</t>
@@ -200,13 +194,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>統合テスト</t>
-    <rPh sb="0" eb="2">
-      <t>トウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作業内容</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
@@ -226,13 +213,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プログラムが動かない。</t>
-    <rPh sb="6" eb="7">
-      <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -338,6 +318,127 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体テスト</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統合テスト</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIPできていない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■進捗</t>
+    <rPh sb="1" eb="3">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤフー店の画像がzipできない。枚数制限を超えたもののみできるようになっている。</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addFileできていない？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ予測</t>
+    <rPh sb="2" eb="4">
+      <t>ヨソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対策</t>
+    <rPh sb="0" eb="2">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIPの処理はまた別物にする</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ベツモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統合テストですること修正することもある</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種バナーなど</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間（h）</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日数（day）</t>
+    <rPh sb="0" eb="2">
+      <t>ニッスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -346,8 +447,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -380,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -497,20 +599,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -519,7 +621,39 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,6 +663,62 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -538,68 +728,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -616,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,29 +791,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -703,12 +838,50 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1005,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1026,39 +1199,39 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>24</v>
+      <c r="H4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="4"/>
@@ -1072,221 +1245,217 @@
         <v>41944</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="20"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3">
-        <v>41952</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>41945</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="C8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="23"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
       <c r="G8" s="3">
-        <v>41952</v>
+        <v>41945</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="8"/>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
         <v>2</v>
       </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="3">
-        <v>41951</v>
+        <v>42016</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="8"/>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
       <c r="G10" s="3">
-        <v>41958</v>
+        <v>42010</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>41951</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="24"/>
+      <c r="C12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="23"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
       <c r="G12" s="3">
-        <v>41952</v>
+        <v>41951</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="8"/>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="1"/>
+      <c r="G13" s="3">
+        <v>42016</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="24"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1">
         <v>2</v>
-      </c>
-      <c r="G13" s="3">
-        <v>41952</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="23"/>
-      <c r="C14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="6">
-        <v>20</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>41952</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="23"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="6">
         <v>20</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="24"/>
       <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="6">
         <v>20</v>
@@ -1294,35 +1463,37 @@
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
       <c r="H16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E17" s="6">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="26"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E18" s="6">
         <v>2</v>
@@ -1330,15 +1501,15 @@
       <c r="F18" s="1"/>
       <c r="G18" s="3"/>
       <c r="H18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="26"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="9"/>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E19" s="6">
         <v>2</v>
@@ -1346,33 +1517,33 @@
       <c r="F19" s="1"/>
       <c r="G19" s="3"/>
       <c r="H19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="26"/>
-      <c r="C20" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E20" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="3"/>
       <c r="H20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="26"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -1380,15 +1551,15 @@
       <c r="F21" s="1"/>
       <c r="G21" s="3"/>
       <c r="H21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="26"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="9"/>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
@@ -1396,97 +1567,195 @@
       <c r="F22" s="1"/>
       <c r="G22" s="3"/>
       <c r="H22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="27"/>
-      <c r="C23" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="C23" s="9"/>
       <c r="D23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="1">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3"/>
       <c r="H23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1">
-        <v>1</v>
+      <c r="B24" s="27"/>
+      <c r="C24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="6">
+        <v>5</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
       <c r="H24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="28"/>
-      <c r="C25" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19">
+      <c r="C25" s="9"/>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17">
         <v>2</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="21"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E26" s="12">
-        <f>SUM(E5:E25)</f>
-        <v>100</v>
-      </c>
-      <c r="F26" s="12">
-        <f>SUM(F5:F25)</f>
-        <v>11</v>
-      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C28" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="33">
+        <f>SUM(E5:E27)</f>
+        <v>121</v>
+      </c>
+      <c r="F28" s="34">
+        <f>SUM(F5:F27)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="35">
+        <f>E28/3</f>
+        <v>40.333333333333336</v>
+      </c>
+      <c r="F29" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:H25"/>
+  <autoFilter ref="B4:H27"/>
   <mergeCells count="3">
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H5:H25">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Will do">
+  <conditionalFormatting sqref="H5:H27">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Will do">
       <formula>NOT(ISERROR(SEARCH("Will do",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Finish">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Finish">
       <formula>NOT(ISERROR(SEARCH("Finish",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Doing">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Doing">
       <formula>NOT(ISERROR(SEARCH("Doing",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H5:H25">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H5:H27">
       <formula1>"Will do,Doing,Finish,Pending"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B5" s="21">
+        <v>42011</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/readme/tasklist.xlsx
+++ b/readme/tasklist.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$H$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$H$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>■モール店リニューアル課題</t>
     <rPh sb="4" eb="5">
@@ -340,10 +340,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ZIPできていない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■進捗</t>
     <rPh sb="1" eb="3">
       <t>シンチョク</t>
@@ -439,6 +435,103 @@
     <t>日数（day）</t>
     <rPh sb="0" eb="2">
       <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ヤフー]iframeのディレクトリを作る</t>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[全店]商品説明文の置き換え</t>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[全店]HTMLのコード改行をきれいにする。</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンテン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ヤフー]brand.xmlでブランド事典リンク修正。</t>
+    <rPh sb="19" eb="21">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIPできていない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統合テスト</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統合テスト修正</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一連のテスト</t>
+    <rPh sb="0" eb="2">
+      <t>イチレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照ページリストを作成</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[全店]商品詳細ページ</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンテン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -449,7 +542,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -482,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -742,13 +835,312 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,29 +1151,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -792,9 +1172,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
@@ -821,6 +1198,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -839,29 +1234,347 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1178,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1191,7 +1904,7 @@
     <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
@@ -1204,131 +1917,129 @@
     </row>
     <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="62" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
+      <c r="C5" s="70"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="68">
         <v>1</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="69">
         <v>41944</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="72"/>
+      <c r="C6" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="D7" s="73"/>
+      <c r="E7" s="63">
         <v>3</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="1" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="20"/>
-      <c r="C7" s="8" t="s">
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="15"/>
+      <c r="C8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="D8" s="56"/>
+      <c r="E8" s="36">
         <v>10</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="23" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="9">
         <v>2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="34">
         <v>41945</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I9" s="57" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="24"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3">
-        <v>42016</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="16"/>
-    </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="24"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="1" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="1">
@@ -1340,365 +2051,526 @@
       <c r="G10" s="3">
         <v>42010</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="24"/>
-      <c r="C11" s="8" t="s">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="25"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13">
+        <v>42016</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="58"/>
+    </row>
+    <row r="12" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="25"/>
+      <c r="C12" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
+      <c r="D12" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="36">
         <v>10</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="1" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="24"/>
-      <c r="C12" s="8" t="s">
+      <c r="I12" s="59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="25"/>
+      <c r="C13" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="9">
         <v>2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="34">
         <v>41951</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I13" s="57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="24"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="1" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="25"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="3">
-        <v>42016</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="24"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="1"/>
+      <c r="G14" s="3">
+        <v>42016</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="25"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="12">
         <v>2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="F15" s="12">
+        <v>2</v>
+      </c>
+      <c r="G15" s="13">
         <v>41952</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I15" s="58" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="24"/>
-      <c r="C15" s="9" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="25"/>
+      <c r="C16" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="43">
         <v>20</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="1" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="25"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="24"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="2" t="s">
+      <c r="I17" s="58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="25"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="43">
         <v>20</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F18" s="9">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>42014</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="25"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="25"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="1" t="s">
+      <c r="E20" s="43">
+        <v>20</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="3">
+        <v>42016</v>
+      </c>
+      <c r="H20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="25"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="2" t="s">
+      <c r="I20" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="25"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="3">
+        <v>42016</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="25"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="3">
+        <v>42016</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="25"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="3">
+        <v>42016</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="25"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3">
+        <v>42016</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="26"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13">
+        <v>42016</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="58"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="43">
+        <v>2</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="28"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="28"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="47">
+        <v>2</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="28"/>
+      <c r="C29" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="43">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B30" s="28"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="28"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="47">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="28"/>
+      <c r="C32" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="41">
+        <v>5</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="29"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+      <c r="C35" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12">
+        <v>2</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="35">
+        <f>SUM(E5:E35)</f>
+        <v>121</v>
+      </c>
+      <c r="F36" s="38">
+        <f>SUM(F5:F35)</f>
         <v>21</v>
       </c>
-      <c r="E17" s="6">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="6">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="27"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="27"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="6">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="27"/>
-      <c r="C21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="27"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="27"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="27"/>
-      <c r="C24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="6">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="28"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="1">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="29"/>
-      <c r="C27" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17">
-        <v>2</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C28" s="31" t="s">
+    </row>
+    <row r="37" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="33">
-        <f>SUM(E5:E27)</f>
-        <v>121</v>
-      </c>
-      <c r="F28" s="34">
-        <f>SUM(F5:F27)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="35">
-        <f>E28/3</f>
+      <c r="D37" s="49"/>
+      <c r="E37" s="52">
+        <f>E36/3</f>
         <v>40.333333333333336</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F37" s="53"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:H27"/>
-  <mergeCells count="3">
-    <mergeCell ref="B8:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B26:B27"/>
+  <autoFilter ref="B4:H35"/>
+  <mergeCells count="8">
+    <mergeCell ref="B9:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C16:C25"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H5:H27">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Will do">
+  <conditionalFormatting sqref="H11:H17 H20:H35 H5:H9">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Will do">
       <formula>NOT(ISERROR(SEARCH("Will do",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Finish">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Finish">
       <formula>NOT(ISERROR(SEARCH("Finish",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Doing">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Doing">
       <formula>NOT(ISERROR(SEARCH("Doing",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Will do">
+      <formula>NOT(ISERROR(SEARCH("Will do",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Finish">
+      <formula>NOT(ISERROR(SEARCH("Finish",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Doing">
+      <formula>NOT(ISERROR(SEARCH("Doing",H10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H19">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Will do">
+      <formula>NOT(ISERROR(SEARCH("Will do",H18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Finish">
+      <formula>NOT(ISERROR(SEARCH("Finish",H18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Doing">
+      <formula>NOT(ISERROR(SEARCH("Doing",H18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H5:H27">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H5:H35">
       <formula1>"Will do,Doing,Finish,Pending"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1723,35 +2595,35 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B5" s="16">
+        <v>42011</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B5" s="21">
-        <v>42011</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/readme/tasklist.xlsx
+++ b/readme/tasklist.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="14805"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19290" windowHeight="14805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$H$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$H$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>■モール店リニューアル課題</t>
     <rPh sb="4" eb="5">
@@ -312,16 +312,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スタート：11月1日～</t>
-    <rPh sb="7" eb="8">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -439,32 +429,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[ヤフー]iframeのディレクトリを作る</t>
-    <rPh sb="19" eb="20">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[全店]商品説明文の置き換え</t>
-    <rPh sb="4" eb="6">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[全店]HTMLのコード改行をきれいにする。</t>
     <rPh sb="1" eb="3">
       <t>ゼンテン</t>
@@ -489,13 +453,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>統合テスト</t>
-    <rPh sb="0" eb="2">
-      <t>トウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>統合テスト修正</t>
     <rPh sb="0" eb="2">
       <t>トウゴウ</t>
@@ -532,6 +489,145 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ヤフー]関連リンク</t>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[全店]モバイル用商品説明文の置き換え</t>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[全店]テスト用のprintを削除する</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンテン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[楽天]テスト環境用のディレクトリを変更</t>
+    <rPh sb="1" eb="3">
+      <t>ラクテン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カンキョウヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ヤフー]iframeのディレクトリを作る※geocitiesに確認する</t>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期化のデバック</t>
+    <rPh sb="0" eb="3">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月数（month）</t>
+    <rPh sb="0" eb="2">
+      <t>ツキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート：11月1日～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤフー店完了</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[楽天店]テスト</t>
+    <rPh sb="1" eb="3">
+      <t>ラクテン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[楽天店]pic/*brandにディレクトリを変更する</t>
+    <rPh sb="1" eb="3">
+      <t>ラクテン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新方法の確認・マニュアル作成</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -575,7 +671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1134,13 +1230,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1213,6 +1442,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1234,144 +1625,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1389,52 +1648,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1891,133 +2134,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I37"/>
+  <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.25" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="51" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68">
+      <c r="C5" s="59"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57">
         <v>1</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="57">
         <v>1</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="58">
         <v>41944</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="31" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="72"/>
-      <c r="C6" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="53" t="s">
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="61"/>
+      <c r="C6" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="42" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="52">
+        <v>3</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="70"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="15"/>
+      <c r="C8" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="29">
+        <v>10</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="63">
-        <v>3</v>
-      </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
-      <c r="C8" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="36">
-        <v>10</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="9">
@@ -2026,19 +2277,20 @@
       <c r="F9" s="9">
         <v>2</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="27">
         <v>41945</v>
       </c>
       <c r="H9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="46" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="25"/>
-      <c r="C10" s="81"/>
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="79"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
@@ -2055,11 +2307,12 @@
         <v>18</v>
       </c>
       <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="25"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="55" t="s">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="79"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="44" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="12">
@@ -2072,34 +2325,36 @@
       <c r="H11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="58"/>
-    </row>
-    <row r="12" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="25"/>
-      <c r="C12" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="36">
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="79"/>
+      <c r="C12" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="29">
         <v>10</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="59" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="25"/>
-      <c r="C13" s="80" t="s">
+      <c r="I12" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="79"/>
+      <c r="C13" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="9">
@@ -2108,19 +2363,20 @@
       <c r="F13" s="9">
         <v>2</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="27">
         <v>41951</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I13" s="46" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="25"/>
-      <c r="C14" s="81"/>
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="79"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
@@ -2135,11 +2391,12 @@
         <v>16</v>
       </c>
       <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="25"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="55" t="s">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="79"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="44" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="12">
@@ -2154,53 +2411,56 @@
       <c r="H15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="58" t="s">
+      <c r="I15" s="47" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="25"/>
-      <c r="C16" s="77" t="s">
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="79"/>
+      <c r="C16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="36">
         <v>20</v>
       </c>
       <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G16" s="34"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="46" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="25"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="47"/>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="79"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="12"/>
       <c r="G17" s="13"/>
       <c r="H17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="25"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="74" t="s">
+      <c r="I17" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="47"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="79"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="36">
         <v>20</v>
       </c>
       <c r="F18" s="9">
@@ -2212,31 +2472,33 @@
       <c r="H18" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="25"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="47"/>
+      <c r="I18" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="79"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
       <c r="H19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="25"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="74" t="s">
+      <c r="I19" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="47"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="79"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="36">
         <v>20</v>
       </c>
       <c r="F20" s="9"/>
@@ -2244,15 +2506,16 @@
         <v>42016</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="25"/>
-      <c r="C21" s="78"/>
+        <v>18</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="79"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="6"/>
       <c r="E21" s="4"/>
       <c r="F21" s="1"/>
@@ -2263,12 +2526,15 @@
         <v>16</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="25"/>
-      <c r="C22" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="79"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="6"/>
       <c r="E22" s="4"/>
       <c r="F22" s="1"/>
@@ -2279,298 +2545,495 @@
         <v>16</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="25"/>
-      <c r="C23" s="78"/>
+        <v>62</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="79"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="6"/>
       <c r="E23" s="4"/>
       <c r="F23" s="1"/>
       <c r="G23" s="3">
-        <v>42016</v>
+        <v>42023</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="25"/>
-      <c r="C24" s="78"/>
+        <v>65</v>
+      </c>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="79"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="6"/>
       <c r="E24" s="4"/>
       <c r="F24" s="1"/>
       <c r="G24" s="3">
-        <v>42016</v>
+        <v>42023</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="79"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="3">
+        <v>42023</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="69"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="79"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="3">
+        <v>42022</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="71" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="26"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13">
-        <v>42016</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="58"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="43">
-        <v>2</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="28"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="3"/>
+      <c r="J26" s="69"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="79"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="3">
+        <v>42022</v>
+      </c>
       <c r="H27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="28"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46" t="s">
+      <c r="I27" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="69"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="79"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="3">
+        <v>42022</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="69"/>
+    </row>
+    <row r="29" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="79"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="13">
+        <v>42022</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="69"/>
+    </row>
+    <row r="30" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="80"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13">
+        <v>42022</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" s="47"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="34">
+        <v>2</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="74"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="82"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="72"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="82"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E33" s="67">
         <v>2</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="12" t="s">
+      <c r="F33" s="68"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="28"/>
-      <c r="C29" s="42" t="s">
+      <c r="I33" s="96"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="97"/>
+      <c r="C34" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E34" s="36">
         <v>1</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="9" t="s">
+      <c r="F34" s="9"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="23"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="28"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="2" t="s">
+      <c r="I34" s="23"/>
+      <c r="J34" s="98"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="97"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E35" s="4">
         <v>1</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="1" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="28"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46" t="s">
+      <c r="I35" s="11"/>
+      <c r="J35" s="99"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="97"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E36" s="4">
         <v>1</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="12" t="s">
+      <c r="F36" s="1"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="28"/>
-      <c r="C32" s="39" t="s">
+      <c r="I36" s="11"/>
+      <c r="J36" s="71"/>
+    </row>
+    <row r="37" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="97"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="40">
+        <v>2</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="100"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="82"/>
+      <c r="C38" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D38" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="34">
+        <v>5</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="74"/>
+      <c r="J38" s="26"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="83"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="72"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="72"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="84"/>
+      <c r="C41" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12">
+        <v>2</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="73"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="41">
-        <v>5</v>
-      </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="29"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="1">
-        <v>5</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="30"/>
-      <c r="C35" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12">
-        <v>2</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="50" t="s">
+      <c r="D42" s="86"/>
+      <c r="E42" s="28">
+        <f>SUM(E5:E41)</f>
+        <v>123</v>
+      </c>
+      <c r="F42" s="31">
+        <f>SUM(F5:F41)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="35">
-        <f>SUM(E5:E35)</f>
-        <v>121</v>
-      </c>
-      <c r="F36" s="38">
-        <f>SUM(F5:F35)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="52">
-        <f>E36/3</f>
-        <v>40.333333333333336</v>
-      </c>
-      <c r="F37" s="53"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="41">
+        <f>E42/3</f>
+        <v>41</v>
+      </c>
+      <c r="F43" s="42"/>
+    </row>
+    <row r="44" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="77"/>
+      <c r="E44" s="48">
+        <f>ROUNDUP(E43/20,1)</f>
+        <v>2.1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:H35"/>
-  <mergeCells count="8">
-    <mergeCell ref="B9:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C16:C25"/>
+  <autoFilter ref="B4:H41"/>
+  <mergeCells count="9">
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B9:B30"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C16:C30"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C9:C11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H11:H17 H20:H35 H5:H9">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Will do">
+  <conditionalFormatting sqref="H11:H17 H20:H24 H5:H9 H31:I35 H30 H37:I41 I36">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Will do">
       <formula>NOT(ISERROR(SEARCH("Will do",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Finish">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Finish">
       <formula>NOT(ISERROR(SEARCH("Finish",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Doing">
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Doing">
       <formula>NOT(ISERROR(SEARCH("Doing",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Will do">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Will do">
       <formula>NOT(ISERROR(SEARCH("Will do",H10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Finish">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Finish">
       <formula>NOT(ISERROR(SEARCH("Finish",H10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Doing">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Doing">
       <formula>NOT(ISERROR(SEARCH("Doing",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H19">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Will do">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Will do">
       <formula>NOT(ISERROR(SEARCH("Will do",H18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Finish">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Finish">
       <formula>NOT(ISERROR(SEARCH("Finish",H18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Doing">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Doing">
       <formula>NOT(ISERROR(SEARCH("Doing",H18)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Will do">
+      <formula>NOT(ISERROR(SEARCH("Will do",H26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Finish">
+      <formula>NOT(ISERROR(SEARCH("Finish",H26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Doing">
+      <formula>NOT(ISERROR(SEARCH("Doing",H26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Will do">
+      <formula>NOT(ISERROR(SEARCH("Will do",H27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Finish">
+      <formula>NOT(ISERROR(SEARCH("Finish",H27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Doing">
+      <formula>NOT(ISERROR(SEARCH("Doing",H27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Will do">
+      <formula>NOT(ISERROR(SEARCH("Will do",H28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Finish">
+      <formula>NOT(ISERROR(SEARCH("Finish",H28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Doing">
+      <formula>NOT(ISERROR(SEARCH("Doing",H28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Will do">
+      <formula>NOT(ISERROR(SEARCH("Will do",H25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Finish">
+      <formula>NOT(ISERROR(SEARCH("Finish",H25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Doing">
+      <formula>NOT(ISERROR(SEARCH("Doing",H25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Will do">
+      <formula>NOT(ISERROR(SEARCH("Will do",H29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Finish">
+      <formula>NOT(ISERROR(SEARCH("Finish",H29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Doing">
+      <formula>NOT(ISERROR(SEARCH("Doing",H29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Will do">
+      <formula>NOT(ISERROR(SEARCH("Will do",H36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Finish">
+      <formula>NOT(ISERROR(SEARCH("Finish",H36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Doing">
+      <formula>NOT(ISERROR(SEARCH("Doing",H36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H5:H35">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I31:I41 H5:H41">
       <formula1>"Will do,Doing,Finish,Pending"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2595,21 +3058,21 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
       <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
         <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.15">
@@ -2617,13 +3080,13 @@
         <v>42011</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/readme/tasklist.xlsx
+++ b/readme/tasklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19290" windowHeight="14805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="14805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1598,6 +1598,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1619,6 +1640,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1648,30 +1672,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2136,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2262,10 +2262,10 @@
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="98" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="43" t="s">
@@ -2289,8 +2289,8 @@
       <c r="J9" s="46"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="79"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
@@ -2310,8 +2310,8 @@
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="79"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="100"/>
       <c r="D11" s="44" t="s">
         <v>20</v>
       </c>
@@ -2329,7 +2329,7 @@
       <c r="J11" s="47"/>
     </row>
     <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="79"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="28" t="s">
         <v>41</v>
       </c>
@@ -2350,8 +2350,8 @@
       <c r="J12" s="48"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="79"/>
-      <c r="C13" s="90" t="s">
+      <c r="B13" s="86"/>
+      <c r="C13" s="98" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="43" t="s">
@@ -2375,8 +2375,8 @@
       <c r="J13" s="46"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="79"/>
-      <c r="C14" s="91"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
@@ -2394,8 +2394,8 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="79"/>
-      <c r="C15" s="92"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="44" t="s">
         <v>21</v>
       </c>
@@ -2417,8 +2417,8 @@
       <c r="J15" s="47"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="79"/>
-      <c r="C16" s="87" t="s">
+      <c r="B16" s="86"/>
+      <c r="C16" s="95" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="63" t="s">
@@ -2440,8 +2440,8 @@
       <c r="J16" s="46"/>
     </row>
     <row r="17" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="79"/>
-      <c r="C17" s="88"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="96"/>
       <c r="D17" s="64"/>
       <c r="E17" s="40"/>
       <c r="F17" s="12"/>
@@ -2455,8 +2455,8 @@
       <c r="J17" s="47"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="79"/>
-      <c r="C18" s="88"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="63" t="s">
         <v>21</v>
       </c>
@@ -2478,8 +2478,8 @@
       <c r="J18" s="46"/>
     </row>
     <row r="19" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="79"/>
-      <c r="C19" s="88"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="64"/>
       <c r="E19" s="40"/>
       <c r="F19" s="12"/>
@@ -2493,8 +2493,8 @@
       <c r="J19" s="47"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="79"/>
-      <c r="C20" s="88"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="96"/>
       <c r="D20" s="63" t="s">
         <v>20</v>
       </c>
@@ -2514,8 +2514,8 @@
       <c r="J20" s="46"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="79"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="6"/>
       <c r="E21" s="4"/>
       <c r="F21" s="1"/>
@@ -2533,16 +2533,16 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="79"/>
-      <c r="C22" s="88"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="96"/>
       <c r="D22" s="6"/>
       <c r="E22" s="4"/>
       <c r="F22" s="1"/>
       <c r="G22" s="3">
-        <v>42016</v>
+        <v>42028</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>62</v>
@@ -2552,8 +2552,8 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="79"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="96"/>
       <c r="D23" s="6"/>
       <c r="E23" s="4"/>
       <c r="F23" s="1"/>
@@ -2569,8 +2569,8 @@
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="79"/>
-      <c r="C24" s="88"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="6"/>
       <c r="E24" s="4"/>
       <c r="F24" s="1"/>
@@ -2586,8 +2586,8 @@
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="79"/>
-      <c r="C25" s="88"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="66"/>
       <c r="E25" s="67"/>
       <c r="F25" s="68"/>
@@ -2603,8 +2603,8 @@
       <c r="J25" s="69"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="79"/>
-      <c r="C26" s="88"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="66"/>
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
@@ -2620,8 +2620,8 @@
       <c r="J26" s="69"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="79"/>
-      <c r="C27" s="88"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="96"/>
       <c r="D27" s="66"/>
       <c r="E27" s="67"/>
       <c r="F27" s="68"/>
@@ -2637,8 +2637,8 @@
       <c r="J27" s="69"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="79"/>
-      <c r="C28" s="88"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="66"/>
       <c r="E28" s="67"/>
       <c r="F28" s="68"/>
@@ -2654,8 +2654,8 @@
       <c r="J28" s="69"/>
     </row>
     <row r="29" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="79"/>
-      <c r="C29" s="88"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="66"/>
       <c r="E29" s="67"/>
       <c r="F29" s="68"/>
@@ -2663,7 +2663,7 @@
         <v>42022</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>72</v>
@@ -2671,8 +2671,8 @@
       <c r="J29" s="69"/>
     </row>
     <row r="30" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="80"/>
-      <c r="C30" s="89"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="64"/>
       <c r="E30" s="40"/>
       <c r="F30" s="12"/>
@@ -2688,7 +2688,7 @@
       <c r="J30" s="47"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="88" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="75" t="s">
@@ -2709,7 +2709,7 @@
       <c r="J31" s="26"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="82"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="37"/>
       <c r="D32" s="2" t="s">
         <v>30</v>
@@ -2726,24 +2726,24 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="82"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="94" t="s">
+      <c r="B33" s="89"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="67">
         <v>2</v>
       </c>
       <c r="F33" s="68"/>
-      <c r="G33" s="95"/>
+      <c r="G33" s="78"/>
       <c r="H33" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="96"/>
+      <c r="I33" s="79"/>
       <c r="J33" s="14"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="97"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="35" t="s">
         <v>32</v>
       </c>
@@ -2759,10 +2759,10 @@
         <v>16</v>
       </c>
       <c r="I34" s="23"/>
-      <c r="J34" s="98"/>
+      <c r="J34" s="80"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="97"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="37"/>
       <c r="D35" s="2" t="s">
         <v>34</v>
@@ -2776,10 +2776,10 @@
         <v>16</v>
       </c>
       <c r="I35" s="11"/>
-      <c r="J35" s="99"/>
+      <c r="J35" s="81"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="97"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="37"/>
       <c r="D36" s="2" t="s">
         <v>35</v>
@@ -2796,7 +2796,7 @@
       <c r="J36" s="71"/>
     </row>
     <row r="37" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="97"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39" t="s">
         <v>73</v>
@@ -2810,10 +2810,10 @@
         <v>16</v>
       </c>
       <c r="I37" s="14"/>
-      <c r="J37" s="100"/>
+      <c r="J37" s="82"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="82"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="32" t="s">
         <v>36</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="J38" s="26"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="83"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="6"/>
       <c r="D39" s="2" t="s">
         <v>38</v>
@@ -2849,7 +2849,7 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="88" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2868,7 +2868,7 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="84"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="20" t="s">
         <v>11</v>
       </c>
@@ -2885,10 +2885,10 @@
       <c r="J41" s="14"/>
     </row>
     <row r="42" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="86"/>
+      <c r="D42" s="94"/>
       <c r="E42" s="28">
         <f>SUM(E5:E41)</f>
         <v>123</v>
@@ -2899,10 +2899,10 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="77"/>
+      <c r="D43" s="84"/>
       <c r="E43" s="41">
         <f>E42/3</f>
         <v>41</v>
@@ -2910,10 +2910,10 @@
       <c r="F43" s="42"/>
     </row>
     <row r="44" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="77"/>
+      <c r="D44" s="84"/>
       <c r="E44" s="48">
         <f>ROUNDUP(E43/20,1)</f>
         <v>2.1</v>
@@ -3047,7 +3047,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/readme/tasklist.xlsx
+++ b/readme/tasklist.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$H$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$H$42</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>■モール店リニューアル課題</t>
     <rPh sb="4" eb="5">
@@ -628,6 +628,13 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[全店]iframeの画像ナンバーの変更</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1369,7 +1376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1617,6 +1624,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2134,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J44"/>
+  <dimension ref="B2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2262,10 +2272,10 @@
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="99" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="43" t="s">
@@ -2289,8 +2299,8 @@
       <c r="J9" s="46"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="86"/>
-      <c r="C10" s="99"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
@@ -2310,8 +2320,8 @@
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="86"/>
-      <c r="C11" s="100"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="44" t="s">
         <v>20</v>
       </c>
@@ -2329,7 +2339,7 @@
       <c r="J11" s="47"/>
     </row>
     <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="86"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="28" t="s">
         <v>41</v>
       </c>
@@ -2350,8 +2360,8 @@
       <c r="J12" s="48"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="86"/>
-      <c r="C13" s="98" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="99" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="43" t="s">
@@ -2375,8 +2385,8 @@
       <c r="J13" s="46"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="86"/>
-      <c r="C14" s="99"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
@@ -2394,8 +2404,8 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="86"/>
-      <c r="C15" s="100"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="44" t="s">
         <v>21</v>
       </c>
@@ -2417,8 +2427,8 @@
       <c r="J15" s="47"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="86"/>
-      <c r="C16" s="95" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="96" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="63" t="s">
@@ -2440,8 +2450,8 @@
       <c r="J16" s="46"/>
     </row>
     <row r="17" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="86"/>
-      <c r="C17" s="96"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="64"/>
       <c r="E17" s="40"/>
       <c r="F17" s="12"/>
@@ -2455,8 +2465,8 @@
       <c r="J17" s="47"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="86"/>
-      <c r="C18" s="96"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="63" t="s">
         <v>21</v>
       </c>
@@ -2478,8 +2488,8 @@
       <c r="J18" s="46"/>
     </row>
     <row r="19" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="86"/>
-      <c r="C19" s="96"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="64"/>
       <c r="E19" s="40"/>
       <c r="F19" s="12"/>
@@ -2493,8 +2503,8 @@
       <c r="J19" s="47"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="86"/>
-      <c r="C20" s="96"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="63" t="s">
         <v>20</v>
       </c>
@@ -2514,8 +2524,8 @@
       <c r="J20" s="46"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="86"/>
-      <c r="C21" s="96"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="6"/>
       <c r="E21" s="4"/>
       <c r="F21" s="1"/>
@@ -2533,8 +2543,8 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="86"/>
-      <c r="C22" s="96"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="6"/>
       <c r="E22" s="4"/>
       <c r="F22" s="1"/>
@@ -2552,14 +2562,12 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="86"/>
-      <c r="C23" s="96"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="6"/>
       <c r="E23" s="4"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="3">
-        <v>42023</v>
-      </c>
+      <c r="G23" s="3"/>
       <c r="H23" s="11" t="s">
         <v>16</v>
       </c>
@@ -2569,14 +2577,12 @@
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="86"/>
-      <c r="C24" s="96"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="97"/>
       <c r="D24" s="6"/>
       <c r="E24" s="4"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="3">
-        <v>42023</v>
-      </c>
+      <c r="G24" s="3"/>
       <c r="H24" s="11" t="s">
         <v>16</v>
       </c>
@@ -2586,14 +2592,12 @@
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="86"/>
-      <c r="C25" s="96"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="97"/>
       <c r="D25" s="66"/>
       <c r="E25" s="67"/>
       <c r="F25" s="68"/>
-      <c r="G25" s="3">
-        <v>42023</v>
-      </c>
+      <c r="G25" s="3"/>
       <c r="H25" s="11" t="s">
         <v>16</v>
       </c>
@@ -2603,14 +2607,12 @@
       <c r="J25" s="69"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="86"/>
-      <c r="C26" s="96"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="97"/>
       <c r="D26" s="66"/>
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
-      <c r="G26" s="3">
-        <v>42022</v>
-      </c>
+      <c r="G26" s="3"/>
       <c r="H26" s="1" t="s">
         <v>37</v>
       </c>
@@ -2620,14 +2622,12 @@
       <c r="J26" s="69"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="86"/>
-      <c r="C27" s="96"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="66"/>
       <c r="E27" s="67"/>
       <c r="F27" s="68"/>
-      <c r="G27" s="3">
-        <v>42022</v>
-      </c>
+      <c r="G27" s="3"/>
       <c r="H27" s="1" t="s">
         <v>16</v>
       </c>
@@ -2637,14 +2637,12 @@
       <c r="J27" s="69"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="86"/>
-      <c r="C28" s="96"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="97"/>
       <c r="D28" s="66"/>
       <c r="E28" s="67"/>
       <c r="F28" s="68"/>
-      <c r="G28" s="3">
-        <v>42022</v>
-      </c>
+      <c r="G28" s="3"/>
       <c r="H28" s="1" t="s">
         <v>16</v>
       </c>
@@ -2654,8 +2652,8 @@
       <c r="J28" s="69"/>
     </row>
     <row r="29" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="86"/>
-      <c r="C29" s="96"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="66"/>
       <c r="E29" s="67"/>
       <c r="F29" s="68"/>
@@ -2673,116 +2671,114 @@
     <row r="30" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="87"/>
       <c r="C30" s="97"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13">
-        <v>42022</v>
-      </c>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" s="83"/>
+    </row>
+    <row r="31" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="88"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13">
+        <v>42022</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="47"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="88" t="s">
+      <c r="J31" s="47"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C32" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D32" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E32" s="34">
         <v>2</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="24" t="s">
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="74"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="89"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="2" t="s">
+      <c r="I32" s="74"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="90"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E33" s="4">
         <v>2</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="1" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="72"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="89"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77" t="s">
+      <c r="I33" s="72"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="90"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E34" s="67">
         <v>2</v>
       </c>
-      <c r="F33" s="68"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="68" t="s">
+      <c r="F34" s="68"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="79"/>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="90"/>
-      <c r="C34" s="35" t="s">
+      <c r="I34" s="79"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="91"/>
+      <c r="C35" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E35" s="36">
         <v>1</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="9" t="s">
+      <c r="F35" s="9"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="80"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="90"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="81"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="80"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="90"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="37"/>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -2793,71 +2789,69 @@
         <v>16</v>
       </c>
       <c r="I36" s="11"/>
-      <c r="J36" s="71"/>
-    </row>
-    <row r="37" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="90"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39" t="s">
+      <c r="J36" s="81"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="91"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="71"/>
+    </row>
+    <row r="38" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="91"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E38" s="40">
         <v>2</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="12" t="s">
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="82"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="89"/>
-      <c r="C38" s="32" t="s">
+      <c r="I38" s="14"/>
+      <c r="J38" s="82"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="90"/>
+      <c r="C39" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D39" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E39" s="34">
         <v>5</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="24" t="s">
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="74"/>
-      <c r="J38" s="26"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="91"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="2" t="s">
+      <c r="I39" s="74"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="92"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E40" s="1">
         <v>5</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="72"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1">
-        <v>1</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="3"/>
@@ -2867,73 +2861,92 @@
       <c r="I40" s="72"/>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="92"/>
-      <c r="C41" s="20" t="s">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="72"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="93"/>
+      <c r="C42" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12">
         <v>2</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="12" t="s">
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="73"/>
-      <c r="J41" s="14"/>
-    </row>
-    <row r="42" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="93" t="s">
+      <c r="I42" s="73"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="94"/>
-      <c r="E42" s="28">
-        <f>SUM(E5:E41)</f>
+      <c r="D43" s="95"/>
+      <c r="E43" s="28">
+        <f>SUM(E5:E42)</f>
         <v>123</v>
       </c>
-      <c r="F42" s="31">
-        <f>SUM(F5:F41)</f>
+      <c r="F43" s="31">
+        <f>SUM(F5:F42)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="83" t="s">
+    <row r="44" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="84"/>
-      <c r="E43" s="41">
-        <f>E42/3</f>
+      <c r="D44" s="85"/>
+      <c r="E44" s="41">
+        <f>E43/3</f>
         <v>41</v>
       </c>
-      <c r="F43" s="42"/>
-    </row>
-    <row r="44" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="83" t="s">
+      <c r="F44" s="42"/>
+    </row>
+    <row r="45" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="84"/>
-      <c r="E44" s="48">
-        <f>ROUNDUP(E43/20,1)</f>
+      <c r="D45" s="85"/>
+      <c r="E45" s="48">
+        <f>ROUNDUP(E44/20,1)</f>
         <v>2.1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:H41"/>
+  <autoFilter ref="B4:H42"/>
   <mergeCells count="9">
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B9:B31"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="B9:B30"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C16:C30"/>
+    <mergeCell ref="C16:C31"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C9:C11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H11:H17 H20:H24 H5:H9 H31:I35 H30 H37:I41 I36">
+  <conditionalFormatting sqref="H11:H17 H20:H24 H5:H9 H32:I36 H31 H38:I42 I37">
     <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Will do">
       <formula>NOT(ISERROR(SEARCH("Will do",H5)))</formula>
     </cfRule>
@@ -3010,7 +3023,7 @@
       <formula>NOT(ISERROR(SEARCH("Doing",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="H29:H30">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Will do">
       <formula>NOT(ISERROR(SEARCH("Will do",H29)))</formula>
     </cfRule>
@@ -3021,19 +3034,19 @@
       <formula>NOT(ISERROR(SEARCH("Doing",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="H37">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Will do">
-      <formula>NOT(ISERROR(SEARCH("Will do",H36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Will do",H37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Finish">
-      <formula>NOT(ISERROR(SEARCH("Finish",H36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Finish",H37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Doing">
-      <formula>NOT(ISERROR(SEARCH("Doing",H36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Doing",H37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I31:I41 H5:H41">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I32:I42 H5:H42">
       <formula1>"Will do,Doing,Finish,Pending"</formula1>
     </dataValidation>
   </dataValidations>

--- a/readme/tasklist.xlsx
+++ b/readme/tasklist.xlsx
@@ -2146,8 +2146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2674,9 +2674,11 @@
       <c r="D30" s="66"/>
       <c r="E30" s="67"/>
       <c r="F30" s="68"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="13">
+        <v>42032</v>
+      </c>
       <c r="H30" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>74</v>
@@ -2689,9 +2691,7 @@
       <c r="D31" s="64"/>
       <c r="E31" s="40"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="13">
-        <v>42022</v>
-      </c>
+      <c r="G31" s="13"/>
       <c r="H31" s="12" t="s">
         <v>16</v>
       </c>

--- a/readme/tasklist.xlsx
+++ b/readme/tasklist.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
   <si>
     <t>■モール店リニューアル課題</t>
     <rPh sb="4" eb="5">
@@ -583,16 +583,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヤフー店完了</t>
-    <rPh sb="3" eb="4">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[楽天店]テスト</t>
     <rPh sb="1" eb="3">
       <t>ラクテン</t>
@@ -635,6 +625,19 @@
     <t>[全店]iframeの画像ナンバーの変更</t>
     <rPh sb="1" eb="3">
       <t>ゼンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽天店完了</t>
+    <rPh sb="0" eb="2">
+      <t>ラクテン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1376,7 +1379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1609,9 +1612,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
@@ -2147,7 +2147,7 @@
   <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2251,7 +2251,7 @@
       <c r="F7" s="52"/>
       <c r="G7" s="53"/>
       <c r="H7" s="42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I7" s="70"/>
       <c r="J7" s="19"/>
@@ -2272,10 +2272,10 @@
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="98" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="43" t="s">
@@ -2299,8 +2299,8 @@
       <c r="J9" s="46"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="87"/>
-      <c r="C10" s="100"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
@@ -2320,8 +2320,8 @@
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="87"/>
-      <c r="C11" s="101"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="100"/>
       <c r="D11" s="44" t="s">
         <v>20</v>
       </c>
@@ -2333,13 +2333,13 @@
         <v>42016</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I11" s="47"/>
       <c r="J11" s="47"/>
     </row>
     <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="87"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="28" t="s">
         <v>41</v>
       </c>
@@ -2352,7 +2352,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
       <c r="H12" s="31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I12" s="48" t="s">
         <v>50</v>
@@ -2360,8 +2360,8 @@
       <c r="J12" s="48"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="87"/>
-      <c r="C13" s="99" t="s">
+      <c r="B13" s="86"/>
+      <c r="C13" s="98" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="43" t="s">
@@ -2385,8 +2385,8 @@
       <c r="J13" s="46"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="87"/>
-      <c r="C14" s="100"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
@@ -2398,14 +2398,14 @@
         <v>42016</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="87"/>
-      <c r="C15" s="101"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="44" t="s">
         <v>21</v>
       </c>
@@ -2427,8 +2427,8 @@
       <c r="J15" s="47"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="87"/>
-      <c r="C16" s="96" t="s">
+      <c r="B16" s="86"/>
+      <c r="C16" s="95" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="63" t="s">
@@ -2450,8 +2450,8 @@
       <c r="J16" s="46"/>
     </row>
     <row r="17" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="87"/>
-      <c r="C17" s="97"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="96"/>
       <c r="D17" s="64"/>
       <c r="E17" s="40"/>
       <c r="F17" s="12"/>
@@ -2465,8 +2465,8 @@
       <c r="J17" s="47"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="87"/>
-      <c r="C18" s="97"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="63" t="s">
         <v>21</v>
       </c>
@@ -2488,8 +2488,8 @@
       <c r="J18" s="46"/>
     </row>
     <row r="19" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="87"/>
-      <c r="C19" s="97"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="64"/>
       <c r="E19" s="40"/>
       <c r="F19" s="12"/>
@@ -2503,8 +2503,8 @@
       <c r="J19" s="47"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="87"/>
-      <c r="C20" s="97"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="96"/>
       <c r="D20" s="63" t="s">
         <v>20</v>
       </c>
@@ -2524,8 +2524,8 @@
       <c r="J20" s="46"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="87"/>
-      <c r="C21" s="97"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="6"/>
       <c r="E21" s="4"/>
       <c r="F21" s="1"/>
@@ -2533,18 +2533,16 @@
         <v>42016</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="87"/>
-      <c r="C22" s="97"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="96"/>
       <c r="D22" s="6"/>
       <c r="E22" s="4"/>
       <c r="F22" s="1"/>
@@ -2557,19 +2555,17 @@
       <c r="I22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="87"/>
-      <c r="C23" s="97"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="96"/>
       <c r="D23" s="6"/>
       <c r="E23" s="4"/>
       <c r="F23" s="1"/>
       <c r="G23" s="3"/>
       <c r="H23" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>65</v>
@@ -2577,14 +2573,14 @@
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="87"/>
-      <c r="C24" s="97"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="6"/>
       <c r="E24" s="4"/>
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
       <c r="H24" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>57</v>
@@ -2592,14 +2588,14 @@
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="87"/>
-      <c r="C25" s="97"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="66"/>
       <c r="E25" s="67"/>
       <c r="F25" s="68"/>
       <c r="G25" s="3"/>
       <c r="H25" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I25" s="69" t="s">
         <v>66</v>
@@ -2607,14 +2603,14 @@
       <c r="J25" s="69"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="87"/>
-      <c r="C26" s="97"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="66"/>
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
       <c r="G26" s="3"/>
       <c r="H26" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I26" s="71" t="s">
         <v>61</v>
@@ -2622,14 +2618,14 @@
       <c r="J26" s="69"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="87"/>
-      <c r="C27" s="97"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="96"/>
       <c r="D27" s="66"/>
       <c r="E27" s="67"/>
       <c r="F27" s="68"/>
       <c r="G27" s="3"/>
       <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I27" s="71" t="s">
         <v>64</v>
@@ -2637,14 +2633,14 @@
       <c r="J27" s="69"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="87"/>
-      <c r="C28" s="97"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="66"/>
       <c r="E28" s="67"/>
       <c r="F28" s="68"/>
       <c r="G28" s="3"/>
       <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" s="71" t="s">
         <v>63</v>
@@ -2652,8 +2648,8 @@
       <c r="J28" s="69"/>
     </row>
     <row r="29" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="87"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="66"/>
       <c r="E29" s="67"/>
       <c r="F29" s="68"/>
@@ -2664,13 +2660,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J29" s="69"/>
     </row>
     <row r="30" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="87"/>
-      <c r="C30" s="97"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="66"/>
       <c r="E30" s="67"/>
       <c r="F30" s="68"/>
@@ -2681,27 +2677,27 @@
         <v>18</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J30" s="83"/>
+        <v>73</v>
+      </c>
+      <c r="J30" s="82"/>
     </row>
     <row r="31" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="88"/>
-      <c r="C31" s="98"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="64"/>
       <c r="E31" s="40"/>
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
       <c r="H31" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J31" s="47"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="88" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="75" t="s">
@@ -2714,15 +2710,17 @@
         <v>2</v>
       </c>
       <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
+      <c r="G32" s="3">
+        <v>42061</v>
+      </c>
       <c r="H32" s="24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="74"/>
       <c r="J32" s="26"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="90"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="37"/>
       <c r="D33" s="2" t="s">
         <v>30</v>
@@ -2731,15 +2729,17 @@
         <v>2</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3">
+        <v>42061</v>
+      </c>
       <c r="H33" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I33" s="72"/>
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="90"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="76"/>
       <c r="D34" s="77" t="s">
         <v>31</v>
@@ -2748,15 +2748,17 @@
         <v>2</v>
       </c>
       <c r="F34" s="68"/>
-      <c r="G34" s="78"/>
+      <c r="G34" s="3">
+        <v>42061</v>
+      </c>
       <c r="H34" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="79"/>
+        <v>18</v>
+      </c>
+      <c r="I34" s="78"/>
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="91"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="35" t="s">
         <v>32</v>
       </c>
@@ -2772,10 +2774,12 @@
         <v>16</v>
       </c>
       <c r="I35" s="23"/>
-      <c r="J35" s="80"/>
+      <c r="J35" s="79" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="91"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="37"/>
       <c r="D36" s="2" t="s">
         <v>34</v>
@@ -2789,10 +2793,10 @@
         <v>16</v>
       </c>
       <c r="I36" s="11"/>
-      <c r="J36" s="81"/>
+      <c r="J36" s="80"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="91"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="37"/>
       <c r="D37" s="2" t="s">
         <v>35</v>
@@ -2809,10 +2813,10 @@
       <c r="J37" s="71"/>
     </row>
     <row r="38" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="91"/>
+      <c r="B38" s="90"/>
       <c r="C38" s="38"/>
       <c r="D38" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" s="40">
         <v>2</v>
@@ -2823,10 +2827,10 @@
         <v>16</v>
       </c>
       <c r="I38" s="14"/>
-      <c r="J38" s="82"/>
+      <c r="J38" s="81"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="90"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="32" t="s">
         <v>36</v>
       </c>
@@ -2845,7 +2849,7 @@
       <c r="J39" s="26"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="92"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="6"/>
       <c r="D40" s="2" t="s">
         <v>38</v>
@@ -2862,7 +2866,7 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="88" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2881,7 +2885,7 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="93"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="20" t="s">
         <v>11</v>
       </c>
@@ -2898,10 +2902,10 @@
       <c r="J42" s="14"/>
     </row>
     <row r="43" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="94" t="s">
+      <c r="C43" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="95"/>
+      <c r="D43" s="94"/>
       <c r="E43" s="28">
         <f>SUM(E5:E42)</f>
         <v>123</v>
@@ -2912,10 +2916,10 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="85"/>
+      <c r="D44" s="84"/>
       <c r="E44" s="41">
         <f>E43/3</f>
         <v>41</v>
@@ -2923,10 +2927,10 @@
       <c r="F44" s="42"/>
     </row>
     <row r="45" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="84" t="s">
+      <c r="C45" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="85"/>
+      <c r="D45" s="84"/>
       <c r="E45" s="48">
         <f>ROUNDUP(E44/20,1)</f>
         <v>2.1</v>
